--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="363">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t xml:space="preserve">WA-PERS2-119.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.yos</t>
   </si>
   <si>
     <t xml:space="preserve">Effects of Funding Policies</t>
@@ -1362,7 +1374,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1503,19 +1515,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,7 +1630,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1691,13 +1695,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.027</v>
@@ -1705,7 +1709,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.4</v>
@@ -1713,10 +1717,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,47 +1908,48 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="50" min="49" style="4" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="4" width="9"/>
     <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="0"/>
       <c r="AE1" s="0"/>
       <c r="AS1" s="1" t="s">
         <v>22</v>
@@ -2106,6 +2111,9 @@
       <c r="AU3" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
     </row>
     <row r="4" s="21" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
@@ -2986,19 +2994,181 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="AE10" s="0"/>
+      <c r="A10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA10" s="27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB10" s="27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC10" s="27" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AD10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AF10" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT10" s="30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU10" s="30" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="AV10" s="30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW10" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="28" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="0"/>
       <c r="AE11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="0"/>
       <c r="AE12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -3014,6 +3184,7 @@
       <c r="AB13" s="27"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
+      <c r="AE13" s="0"/>
       <c r="AF13" s="27"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -3030,14 +3201,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C14" s="26" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3191,10 +3361,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3352,10 +3522,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C16" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3513,10 +3683,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C17" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3618,7 +3788,7 @@
         <v>140</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ17" s="0" t="n">
         <v>15</v>
@@ -3674,10 +3844,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C18" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3835,10 +4005,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C19" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3940,7 +4110,7 @@
         <v>140</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ19" s="0" t="n">
         <v>30</v>
@@ -3996,10 +4166,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C20" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4098,7 +4268,7 @@
         <v>139</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>141</v>
@@ -4157,10 +4327,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C21" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4259,7 +4429,7 @@
         <v>139</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI21" s="2" t="s">
         <v>141</v>
@@ -4318,10 +4488,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C22" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4420,10 +4590,10 @@
         <v>139</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ22" s="0" t="n">
         <v>15</v>
@@ -4479,10 +4649,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C23" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4581,7 +4751,7 @@
         <v>139</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>141</v>
@@ -4640,10 +4810,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C24" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4742,10 +4912,10 @@
         <v>139</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ24" s="0" t="n">
         <v>30</v>
@@ -4815,6 +4985,7 @@
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
+      <c r="AE25" s="0"/>
       <c r="AF25" s="27"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -4831,10 +5002,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C26" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4942,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="AK26" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL26" s="0" t="n">
         <v>5</v>
@@ -4992,10 +5163,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C27" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5103,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="AK27" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL27" s="0" t="n">
         <v>10</v>
@@ -5153,10 +5324,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C28" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5258,13 +5429,13 @@
         <v>140</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ28" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK28" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL28" s="0" t="n">
         <v>5</v>
@@ -5314,10 +5485,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C29" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5419,13 +5590,13 @@
         <v>140</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ29" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK29" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL29" s="0" t="n">
         <v>10</v>
@@ -5475,10 +5646,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C30" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5577,16 +5748,16 @@
         <v>139</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ30" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK30" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL30" s="0" t="n">
         <v>5</v>
@@ -5636,10 +5807,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C31" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5738,16 +5909,16 @@
         <v>139</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK31" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL31" s="0" t="n">
         <v>10</v>
@@ -5797,10 +5968,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C32" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5902,13 +6073,13 @@
         <v>140</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ32" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK32" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL32" s="0" t="n">
         <v>5</v>
@@ -5971,6 +6142,7 @@
       <c r="AB33" s="27"/>
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
+      <c r="AE33" s="0"/>
       <c r="AF33" s="27"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
@@ -5987,10 +6159,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C34" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6092,13 +6264,13 @@
         <v>140</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ34" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK34" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL34" s="0" t="n">
         <v>5</v>
@@ -6149,10 +6321,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C35" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6254,13 +6426,13 @@
         <v>140</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ35" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK35" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL35" s="0" t="n">
         <v>5</v>
@@ -6311,10 +6483,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C36" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6416,13 +6588,13 @@
         <v>140</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ36" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK36" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL36" s="0" t="n">
         <v>5</v>
@@ -6473,10 +6645,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C37" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6578,13 +6750,13 @@
         <v>140</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ37" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK37" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL37" s="0" t="n">
         <v>5</v>
@@ -6635,10 +6807,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C38" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6740,13 +6912,13 @@
         <v>140</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ38" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK38" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL38" s="0" t="n">
         <v>5</v>
@@ -6797,10 +6969,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C39" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6902,13 +7074,13 @@
         <v>140</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ39" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK39" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL39" s="0" t="n">
         <v>5</v>
@@ -6973,6 +7145,7 @@
       <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
       <c r="AD40" s="27"/>
+      <c r="AE40" s="0"/>
       <c r="AF40" s="27"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
@@ -6990,10 +7163,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C41" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7095,13 +7268,13 @@
         <v>140</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ41" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK41" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL41" s="0" t="n">
         <v>5</v>
@@ -7125,7 +7298,7 @@
         <v>200</v>
       </c>
       <c r="AS41" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AT41" s="30" t="n">
         <v>0.2</v>
@@ -7151,10 +7324,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C42" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7256,13 +7429,13 @@
         <v>140</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ42" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK42" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL42" s="0" t="n">
         <v>5</v>
@@ -7287,7 +7460,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AS42" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AT42" s="30" t="n">
         <v>0.2</v>
@@ -7313,10 +7486,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C43" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7418,13 +7591,13 @@
         <v>140</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ43" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK43" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL43" s="0" t="n">
         <v>5</v>
@@ -7449,7 +7622,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AS43" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AT43" s="30" t="n">
         <v>0.2</v>
@@ -7488,6 +7661,7 @@
       <c r="AB44" s="27"/>
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
+      <c r="AE44" s="0"/>
       <c r="AF44" s="27"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
@@ -7504,7 +7678,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -7520,6 +7694,7 @@
       <c r="AB45" s="27"/>
       <c r="AC45" s="27"/>
       <c r="AD45" s="27"/>
+      <c r="AE45" s="0"/>
       <c r="AF45" s="27"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
@@ -7536,10 +7711,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C46" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7626,7 +7801,7 @@
         <v>0.075</v>
       </c>
       <c r="AD46" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE46" s="5" t="n">
         <v>0.0822</v>
@@ -7697,10 +7872,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C47" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7787,7 +7962,7 @@
         <v>0.075</v>
       </c>
       <c r="AD47" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE47" s="5" t="n">
         <v>0.0822</v>
@@ -7802,7 +7977,7 @@
         <v>140</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ47" s="0" t="n">
         <v>30</v>
@@ -7858,10 +8033,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C48" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7948,7 +8123,7 @@
         <v>0.075</v>
       </c>
       <c r="AD48" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE48" s="5" t="n">
         <v>0.0822</v>
@@ -7963,13 +8138,13 @@
         <v>140</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ48" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK48" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL48" s="0" t="n">
         <v>5</v>
@@ -8019,10 +8194,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C49" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8109,7 +8284,7 @@
         <v>0.075</v>
       </c>
       <c r="AD49" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE49" s="5" t="n">
         <v>0.0822</v>
@@ -8124,13 +8299,13 @@
         <v>140</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ49" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK49" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL49" s="0" t="n">
         <v>10</v>
@@ -8179,11 +8354,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35" t="s">
-        <v>223</v>
+      <c r="A50" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C50" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8270,7 +8445,7 @@
         <v>0.075</v>
       </c>
       <c r="AD50" s="27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AE50" s="5" t="n">
         <v>0.0822</v>
@@ -8285,13 +8460,13 @@
         <v>140</v>
       </c>
       <c r="AI50" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ50" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK50" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL50" s="0" t="n">
         <v>5</v>
@@ -8340,7 +8515,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35"/>
+      <c r="A51" s="2"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="I51" s="2"/>
@@ -8355,6 +8530,7 @@
       <c r="AB51" s="27"/>
       <c r="AC51" s="27"/>
       <c r="AD51" s="27"/>
+      <c r="AE51" s="0"/>
       <c r="AF51" s="27"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
@@ -8371,7 +8547,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -8387,6 +8563,7 @@
       <c r="AB52" s="27"/>
       <c r="AC52" s="27"/>
       <c r="AD52" s="27"/>
+      <c r="AE52" s="0"/>
       <c r="AF52" s="27"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
@@ -8403,10 +8580,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C53" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8508,13 +8685,13 @@
         <v>140</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ53" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK53" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL53" s="0" t="n">
         <v>5</v>
@@ -8564,10 +8741,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C54" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8669,13 +8846,13 @@
         <v>140</v>
       </c>
       <c r="AI54" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AJ54" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK54" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AL54" s="0" t="n">
         <v>5</v>
@@ -8738,87 +8915,87 @@
     <mergeCell ref="AS4:AV4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN6:AN9 AN13:AN54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN6:AN10 AN13:AN54" type="list">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI6:AI9 AI13:AI54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI6:AI10 AI13:AI54" type="list">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH6:AH9 AH13:AH54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH6:AH10 AH13:AH54" type="list">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AS6:AS9 AS13:AS54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AS6:AS10 AS13:AS54" type="list">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D10 P6:P9 C13:D54 P13:P54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D10 P6:P10 C13:D54 P13:P54" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-10% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V6:V9 AB6:AB9 V13:V54 AB13:AB54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-10% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V6:V10 AB6:AB10 V13:V54 AB13:AB54" type="decimal">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0-15" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W6:X9 W13:X54" type="whole">
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0-15" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W6:X10 W13:X54" type="whole">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:AA9 AC6:AC9 AE6:AE9 Y13:AA54 AC13:AC54 AE13:AE54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:AA10 AC6:AC10 AE6:AE10 Y13:AA54 AC13:AC54 AE13:AE54" type="decimal">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0 to 30, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ6:AJ9 AJ13:AJ54" type="whole">
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0 to 30, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ6:AJ10 AJ13:AJ54" type="whole">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AT6:AU9 AT13:AU54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AT6:AU10 AT13:AU54" type="decimal">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-30%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV6:AV9 AV13:AV54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-30%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV6:AV10 AV13:AV54" type="decimal">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF6:AF9 AF13:AF54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF6:AF10 AF13:AF54" type="decimal">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Integer, 1 to 30" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL6:AL9 AL13:AL54" type="whole">
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 1 to 30" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL6:AL10 AL13:AL54" type="whole">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AM6:AM9 AM13:AM54" type="decimal">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AM6:AM10 AM13:AM54" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AO6:AO9 AO13:AO54" type="decimal">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AO6:AO10 AO13:AO54" type="decimal">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD6:AD9 AD13:AD54" type="none">
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD6:AD10 AD13:AD54" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AW6:AY9 AW13:AY54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AW6:AY10 AW13:AY54" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP6:AP9 AP13:AP54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP6:AP10 AP13:AP54" type="list">
       <formula1>"MA,AL,AL_pct"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ6:AQ9 AQ13:AQ54" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ6:AQ10 AQ13:AQ54" type="decimal">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Integer 55 to 65, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S6:S9 S13:S54" type="whole">
+    <dataValidation allowBlank="true" operator="between" prompt="Integer 55 to 65, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S6:S10 S13:S54" type="whole">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I6:J9 I13:J54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I6:J10 I13:J54" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8846,7 +9023,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8861,12 +9038,12 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B4" s="27" t="n">
         <v>-0.25</v>
@@ -8880,7 +9057,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" s="27" t="n">
         <v>0.0822</v>
@@ -8894,7 +9071,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B6" s="27" t="n">
         <v>-0.25</v>
@@ -8908,7 +9085,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B7" s="27" t="n">
         <v>0.0822</v>
@@ -8922,7 +9099,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B8" s="27" t="n">
         <v>-0.25</v>
@@ -8936,7 +9113,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B9" s="27" t="n">
         <v>0.0822</v>
@@ -8950,7 +9127,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B10" s="27" t="n">
         <v>-0.25</v>
@@ -8964,7 +9141,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B11" s="27" t="n">
         <v>0.0822</v>
@@ -8977,8 +9154,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>223</v>
+      <c r="A12" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B12" s="27" t="n">
         <v>-0.25</v>
@@ -8991,8 +9168,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>223</v>
+      <c r="A13" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B13" s="27" t="n">
         <v>0.0822</v>
@@ -9046,13 +9223,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -9084,30 +9261,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,15 +9334,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.9797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -9175,19 +9352,19 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9196,27 +9373,27 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9225,36 +9402,36 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,11 +9439,11 @@
         <v>142</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9290,18 +9467,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+    <row r="26" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+    <row r="27" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
+    <row r="28" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9350,39 +9527,39 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="s">
-        <v>259</v>
+      <c r="A39" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9408,59 +9585,59 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9468,56 +9645,56 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37" t="s">
+    <row r="63" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="35" t="s">
+    <row r="64" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="36" t="s">
         <v>91</v>
       </c>
     </row>
@@ -9526,28 +9703,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9577,34 +9754,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="110.975708502024"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
@@ -9612,466 +9792,466 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="39" t="n">
+        <v>164</v>
+      </c>
+      <c r="D8" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="39" t="n">
+        <v>166</v>
+      </c>
+      <c r="D9" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="39" t="n">
+        <v>168</v>
+      </c>
+      <c r="D10" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="39" t="n">
+        <v>170</v>
+      </c>
+      <c r="D11" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="39" t="n">
+        <v>173</v>
+      </c>
+      <c r="D12" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="39" t="n">
+        <v>175</v>
+      </c>
+      <c r="D13" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="39"/>
+        <v>177</v>
+      </c>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="39" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="39" t="n">
+        <v>182</v>
+      </c>
+      <c r="D16" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="39" t="n">
+        <v>184</v>
+      </c>
+      <c r="D17" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="39" t="n">
+        <v>186</v>
+      </c>
+      <c r="D18" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
+      <c r="A19" s="38"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="39" t="n">
+      <c r="D19" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="39" t="n">
+        <v>188</v>
+      </c>
+      <c r="D20" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="39" t="n">
+        <v>191</v>
+      </c>
+      <c r="D21" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="39" t="n">
+        <v>193</v>
+      </c>
+      <c r="D22" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="39" t="n">
+        <v>195</v>
+      </c>
+      <c r="D23" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="39" t="n">
+        <v>197</v>
+      </c>
+      <c r="D24" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="39"/>
+        <v>201</v>
+      </c>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="38"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="32" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="39" t="n">
+        <v>203</v>
+      </c>
+      <c r="D27" s="37" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="39" t="n">
+        <v>205</v>
+      </c>
+      <c r="D28" s="37" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="39" t="n">
+        <v>208</v>
+      </c>
+      <c r="D29" s="37" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="39" t="n">
+        <v>210</v>
+      </c>
+      <c r="D30" s="37" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="39" t="n">
+        <v>217</v>
+      </c>
+      <c r="D32" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="39" t="n">
+        <v>219</v>
+      </c>
+      <c r="D33" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="39" t="n">
+        <v>222</v>
+      </c>
+      <c r="D34" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="39" t="n">
+        <v>224</v>
+      </c>
+      <c r="D35" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="31" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="39" t="n">
+        <v>226</v>
+      </c>
+      <c r="D36" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="35" t="s">
-        <v>223</v>
+      <c r="B37" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="39" t="n">
+        <v>228</v>
+      </c>
+      <c r="D37" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="39" t="n">
+        <v>229</v>
+      </c>
+      <c r="D38" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="31" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="39" t="n">
+        <v>231</v>
+      </c>
+      <c r="D39" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K39" s="27"/>
-      <c r="L39" s="42"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="27"/>
       <c r="Q39" s="27"/>
       <c r="T39" s="27"/>
@@ -10089,28 +10269,28 @@
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
       <c r="AO39" s="30"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40" t="s">
-        <v>298</v>
+      <c r="A40" s="38" t="s">
+        <v>302</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="39" t="n">
+        <v>233</v>
+      </c>
+      <c r="D40" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K40" s="27"/>
-      <c r="L40" s="42"/>
+      <c r="L40" s="40"/>
       <c r="M40" s="27"/>
       <c r="Q40" s="27"/>
       <c r="T40" s="27"/>
@@ -10128,9 +10308,9 @@
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
       <c r="AO40" s="30"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="20">
@@ -10238,32 +10418,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.9473684210526"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.5910931174089"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10272,10 +10452,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -10283,309 +10463,309 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>304</v>
+        <v>307</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>308</v>
+      <c r="D10" s="37" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="39" t="s">
         <v>315</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>324</v>
+        <v>315</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>326</v>
+        <v>315</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="31"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="31"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="25"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="31" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="D21" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="31" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D22" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="31" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="31" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="25"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="D30" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D31" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="25"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" s="39"/>
+        <v>353</v>
+      </c>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="31" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="31" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/IO_M1_new/RunControl_M1_new.xlsx
+++ b/IO_M1_new/RunControl_M1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="365">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -512,13 +512,19 @@
     <t xml:space="preserve">VSERS</t>
   </si>
   <si>
-    <t xml:space="preserve">VSERS.fillin.yos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.fillin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.yos</t>
+    <t xml:space="preserve">VT-VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersterm.average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersret</t>
   </si>
   <si>
     <t xml:space="preserve">Effects of Funding Policies</t>
@@ -1619,7 +1625,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1627,11 +1633,11 @@
       <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,7 +1680,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1689,19 +1695,19 @@
   </sheetPr>
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.027</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.4</v>
@@ -1717,10 +1723,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1801,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1810,13 +1816,13 @@
   </sheetPr>
   <dimension ref="A6:A25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,7 +1898,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1907,45 +1913,45 @@
   </sheetPr>
   <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="4" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="48" min="45" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="4" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="4" width="9"/>
-    <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="5" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="32" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="38" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="45" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="4" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="52" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3037,10 @@
         <v>135</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O10" s="27" t="n">
         <v>0</v>
@@ -3168,7 +3174,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -3201,10 +3207,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>0</v>
@@ -3214,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1000</v>
@@ -3232,16 +3238,16 @@
         <v>133</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O14" s="27" t="n">
         <v>0</v>
@@ -3361,10 +3367,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3375,10 +3381,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1000</v>
@@ -3393,16 +3399,16 @@
         <v>133</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O15" s="27" t="n">
         <v>0</v>
@@ -3522,10 +3528,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C16" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3536,10 +3542,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1000</v>
@@ -3554,16 +3560,16 @@
         <v>133</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O16" s="27" t="n">
         <v>0</v>
@@ -3683,10 +3689,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C17" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3697,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1000</v>
@@ -3715,16 +3721,16 @@
         <v>133</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O17" s="27" t="n">
         <v>0</v>
@@ -3788,7 +3794,7 @@
         <v>140</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ17" s="0" t="n">
         <v>15</v>
@@ -3844,10 +3850,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -3858,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1000</v>
@@ -3876,16 +3882,16 @@
         <v>133</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O18" s="27" t="n">
         <v>0</v>
@@ -4005,10 +4011,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4019,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1000</v>
@@ -4037,16 +4043,16 @@
         <v>133</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O19" s="27" t="n">
         <v>0</v>
@@ -4110,7 +4116,7 @@
         <v>140</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ19" s="0" t="n">
         <v>30</v>
@@ -4166,10 +4172,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4180,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1000</v>
@@ -4198,16 +4204,16 @@
         <v>133</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O20" s="27" t="n">
         <v>0</v>
@@ -4268,7 +4274,7 @@
         <v>139</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>141</v>
@@ -4327,10 +4333,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C21" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4341,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1000</v>
@@ -4359,16 +4365,16 @@
         <v>133</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O21" s="27" t="n">
         <v>0</v>
@@ -4429,7 +4435,7 @@
         <v>139</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI21" s="2" t="s">
         <v>141</v>
@@ -4488,10 +4494,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C22" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4502,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1000</v>
@@ -4520,16 +4526,16 @@
         <v>133</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O22" s="27" t="n">
         <v>0</v>
@@ -4590,10 +4596,10 @@
         <v>139</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ22" s="0" t="n">
         <v>15</v>
@@ -4649,10 +4655,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4663,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1000</v>
@@ -4681,16 +4687,16 @@
         <v>133</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O23" s="27" t="n">
         <v>0</v>
@@ -4751,7 +4757,7 @@
         <v>139</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>141</v>
@@ -4810,10 +4816,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C24" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -4824,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1000</v>
@@ -4842,16 +4848,16 @@
         <v>133</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O24" s="27" t="n">
         <v>0</v>
@@ -4912,10 +4918,10 @@
         <v>139</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ24" s="0" t="n">
         <v>30</v>
@@ -5002,10 +5008,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C26" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5016,10 +5022,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1000</v>
@@ -5034,16 +5040,16 @@
         <v>133</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O26" s="27" t="n">
         <v>0</v>
@@ -5113,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="AK26" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL26" s="0" t="n">
         <v>5</v>
@@ -5163,10 +5169,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5177,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1000</v>
@@ -5195,16 +5201,16 @@
         <v>133</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O27" s="27" t="n">
         <v>0</v>
@@ -5274,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="AK27" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL27" s="0" t="n">
         <v>10</v>
@@ -5324,10 +5330,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C28" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5338,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1000</v>
@@ -5356,16 +5362,16 @@
         <v>133</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O28" s="27" t="n">
         <v>0</v>
@@ -5429,13 +5435,13 @@
         <v>140</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ28" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK28" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL28" s="0" t="n">
         <v>5</v>
@@ -5485,10 +5491,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C29" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5499,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1000</v>
@@ -5517,16 +5523,16 @@
         <v>133</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O29" s="27" t="n">
         <v>0</v>
@@ -5590,13 +5596,13 @@
         <v>140</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ29" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK29" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL29" s="0" t="n">
         <v>10</v>
@@ -5646,10 +5652,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C30" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5660,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1000</v>
@@ -5678,16 +5684,16 @@
         <v>133</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O30" s="27" t="n">
         <v>0</v>
@@ -5748,16 +5754,16 @@
         <v>139</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ30" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK30" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL30" s="0" t="n">
         <v>5</v>
@@ -5807,10 +5813,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5821,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1000</v>
@@ -5839,16 +5845,16 @@
         <v>133</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O31" s="27" t="n">
         <v>0</v>
@@ -5909,16 +5915,16 @@
         <v>139</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK31" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL31" s="0" t="n">
         <v>10</v>
@@ -5968,10 +5974,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C32" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -5982,10 +5988,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1000</v>
@@ -6000,16 +6006,16 @@
         <v>133</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O32" s="27" t="n">
         <v>0</v>
@@ -6073,13 +6079,13 @@
         <v>140</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ32" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK32" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL32" s="0" t="n">
         <v>5</v>
@@ -6159,10 +6165,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C34" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6173,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1000</v>
@@ -6191,16 +6197,16 @@
         <v>133</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O34" s="27" t="n">
         <v>0</v>
@@ -6264,13 +6270,13 @@
         <v>140</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ34" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK34" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL34" s="0" t="n">
         <v>5</v>
@@ -6321,10 +6327,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C35" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6335,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1000</v>
@@ -6353,16 +6359,16 @@
         <v>133</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O35" s="27" t="n">
         <v>0</v>
@@ -6426,13 +6432,13 @@
         <v>140</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ35" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK35" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL35" s="0" t="n">
         <v>5</v>
@@ -6483,10 +6489,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C36" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6497,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1000</v>
@@ -6515,16 +6521,16 @@
         <v>133</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O36" s="27" t="n">
         <v>0</v>
@@ -6588,13 +6594,13 @@
         <v>140</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ36" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK36" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL36" s="0" t="n">
         <v>5</v>
@@ -6645,10 +6651,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C37" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6659,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1000</v>
@@ -6677,16 +6683,16 @@
         <v>133</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O37" s="27" t="n">
         <v>0</v>
@@ -6750,13 +6756,13 @@
         <v>140</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ37" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK37" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL37" s="0" t="n">
         <v>5</v>
@@ -6807,10 +6813,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C38" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6821,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1000</v>
@@ -6839,16 +6845,16 @@
         <v>133</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O38" s="27" t="n">
         <v>0</v>
@@ -6912,13 +6918,13 @@
         <v>140</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ38" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK38" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL38" s="0" t="n">
         <v>5</v>
@@ -6969,10 +6975,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C39" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -6983,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1000</v>
@@ -7001,16 +7007,16 @@
         <v>133</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L39" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O39" s="27" t="n">
         <v>0</v>
@@ -7074,13 +7080,13 @@
         <v>140</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ39" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK39" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL39" s="0" t="n">
         <v>5</v>
@@ -7163,10 +7169,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C41" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7177,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1000</v>
@@ -7195,16 +7201,16 @@
         <v>133</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L41" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O41" s="27" t="n">
         <v>0</v>
@@ -7268,13 +7274,13 @@
         <v>140</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ41" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK41" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL41" s="0" t="n">
         <v>5</v>
@@ -7298,7 +7304,7 @@
         <v>200</v>
       </c>
       <c r="AS41" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AT41" s="30" t="n">
         <v>0.2</v>
@@ -7324,10 +7330,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C42" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7338,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1000</v>
@@ -7356,16 +7362,16 @@
         <v>133</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L42" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O42" s="27" t="n">
         <v>0</v>
@@ -7429,13 +7435,13 @@
         <v>140</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ42" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK42" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL42" s="0" t="n">
         <v>5</v>
@@ -7460,7 +7466,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AS42" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AT42" s="30" t="n">
         <v>0.2</v>
@@ -7486,10 +7492,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C43" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7500,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1000</v>
@@ -7518,16 +7524,16 @@
         <v>133</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O43" s="27" t="n">
         <v>0</v>
@@ -7591,13 +7597,13 @@
         <v>140</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ43" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AK43" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL43" s="0" t="n">
         <v>5</v>
@@ -7622,7 +7628,7 @@
         <v>168801211.5</v>
       </c>
       <c r="AS43" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AT43" s="30" t="n">
         <v>0.2</v>
@@ -7678,7 +7684,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -7711,10 +7717,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C46" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7725,10 +7731,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1000</v>
@@ -7743,16 +7749,16 @@
         <v>133</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L46" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O46" s="27" t="n">
         <v>0</v>
@@ -7801,7 +7807,7 @@
         <v>0.075</v>
       </c>
       <c r="AD46" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE46" s="5" t="n">
         <v>0.0822</v>
@@ -7872,10 +7878,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C47" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -7886,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>1000</v>
@@ -7904,16 +7910,16 @@
         <v>133</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O47" s="27" t="n">
         <v>0</v>
@@ -7962,7 +7968,7 @@
         <v>0.075</v>
       </c>
       <c r="AD47" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE47" s="5" t="n">
         <v>0.0822</v>
@@ -7977,7 +7983,7 @@
         <v>140</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ47" s="0" t="n">
         <v>30</v>
@@ -8033,10 +8039,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C48" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8047,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1000</v>
@@ -8065,16 +8071,16 @@
         <v>133</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O48" s="27" t="n">
         <v>0</v>
@@ -8123,7 +8129,7 @@
         <v>0.075</v>
       </c>
       <c r="AD48" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE48" s="5" t="n">
         <v>0.0822</v>
@@ -8138,13 +8144,13 @@
         <v>140</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ48" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK48" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL48" s="0" t="n">
         <v>5</v>
@@ -8194,10 +8200,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C49" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8208,10 +8214,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1000</v>
@@ -8226,16 +8232,16 @@
         <v>133</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O49" s="27" t="n">
         <v>0</v>
@@ -8284,7 +8290,7 @@
         <v>0.075</v>
       </c>
       <c r="AD49" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE49" s="5" t="n">
         <v>0.0822</v>
@@ -8299,13 +8305,13 @@
         <v>140</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ49" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK49" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL49" s="0" t="n">
         <v>10</v>
@@ -8355,10 +8361,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C50" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8369,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1000</v>
@@ -8387,16 +8393,16 @@
         <v>133</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O50" s="27" t="n">
         <v>0</v>
@@ -8445,7 +8451,7 @@
         <v>0.075</v>
       </c>
       <c r="AD50" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE50" s="5" t="n">
         <v>0.0822</v>
@@ -8460,13 +8466,13 @@
         <v>140</v>
       </c>
       <c r="AI50" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ50" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK50" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL50" s="0" t="n">
         <v>5</v>
@@ -8547,7 +8553,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -8580,10 +8586,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C53" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8594,10 +8600,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>1000</v>
@@ -8612,16 +8618,16 @@
         <v>133</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L53" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O53" s="27" t="n">
         <v>0</v>
@@ -8685,13 +8691,13 @@
         <v>140</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ53" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK53" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL53" s="0" t="n">
         <v>5</v>
@@ -8741,10 +8747,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C54" s="26" t="n">
         <f aca="false">FALSE()</f>
@@ -8755,10 +8761,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>1000</v>
@@ -8773,16 +8779,16 @@
         <v>133</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L54" s="0" t="s">
         <v>135</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O54" s="27" t="n">
         <v>0</v>
@@ -8846,13 +8852,13 @@
         <v>140</v>
       </c>
       <c r="AI54" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AJ54" s="0" t="n">
         <v>30</v>
       </c>
       <c r="AK54" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL54" s="0" t="n">
         <v>5</v>
@@ -9002,7 +9008,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9017,14 +9023,14 @@
   </sheetPr>
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9038,12 +9044,12 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" s="27" t="n">
         <v>-0.25</v>
@@ -9057,7 +9063,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B5" s="27" t="n">
         <v>0.0822</v>
@@ -9071,7 +9077,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="27" t="n">
         <v>-0.25</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="27" t="n">
         <v>0.0822</v>
@@ -9099,7 +9105,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B8" s="27" t="n">
         <v>-0.25</v>
@@ -9113,7 +9119,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B9" s="27" t="n">
         <v>0.0822</v>
@@ -9127,7 +9133,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" s="27" t="n">
         <v>-0.25</v>
@@ -9141,7 +9147,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" s="27" t="n">
         <v>0.0822</v>
@@ -9155,7 +9161,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B12" s="27" t="n">
         <v>-0.25</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" s="27" t="n">
         <v>0.0822</v>
@@ -9194,7 +9200,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9209,13 +9215,13 @@
   </sheetPr>
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9223,19 +9229,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9250,41 +9256,41 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9313,7 +9319,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9328,21 +9334,21 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.9797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -9352,15 +9358,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,23 +9379,23 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9402,23 +9408,23 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9428,10 +9434,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,7 +9445,7 @@
         <v>142</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,35 +9533,35 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9585,22 +9591,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,34 +9616,34 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,40 +9663,40 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9703,28 +9709,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -9733,7 +9739,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9748,39 +9754,39 @@
   </sheetPr>
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9792,178 +9798,178 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D11" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D12" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38"/>
       <c r="B13" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D13" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38"/>
       <c r="B14" s="32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="38"/>
       <c r="B15" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D15" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D17" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9973,91 +9979,91 @@
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D20" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38"/>
       <c r="B22" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D22" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D23" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38"/>
       <c r="B24" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D24" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38"/>
       <c r="B25" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D25" s="37"/>
     </row>
@@ -10068,70 +10074,70 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D27" s="37" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
       <c r="B28" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D28" s="37" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D29" s="37" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D30" s="37" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,114 +10147,114 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D32" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D33" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D34" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D35" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D36" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D37" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D38" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D39" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="40"/>
@@ -10275,19 +10281,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D40" s="37" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="40"/>
@@ -10397,7 +10403,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10412,38 +10418,38 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10452,10 +10458,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -10463,133 +10469,133 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>307</v>
-      </c>
       <c r="D9" s="37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>315</v>
-      </c>
       <c r="D12" s="37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,16 +10614,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>133</v>
@@ -10626,10 +10632,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>133</v>
@@ -10638,10 +10644,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>133</v>
@@ -10649,10 +10655,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>133</v>
@@ -10660,10 +10666,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>133</v>
@@ -10675,13 +10681,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>133</v>
@@ -10689,10 +10695,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>133</v>
@@ -10700,10 +10706,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>133</v>
@@ -10711,10 +10717,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>133</v>
@@ -10722,10 +10728,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>133</v>
@@ -10737,16 +10743,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="31" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>133</v>
@@ -10754,10 +10760,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>133</v>
@@ -10765,13 +10771,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
